--- a/Algorithm_tester/data_autosave/real_runtime.xlsx
+++ b/Algorithm_tester/data_autosave/real_runtime.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F561"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>runtime</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>positive_predictivity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +515,12 @@
       <c r="F2" t="n">
         <v>171.539306640625</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1900826446280992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -521,6 +537,12 @@
       <c r="F3" t="n">
         <v>211.4377737045288</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3148606811145511</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -537,6 +559,12 @@
       <c r="F4" t="n">
         <v>248.3347058296204</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9615384615384616</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -553,6 +581,12 @@
       <c r="F5" t="n">
         <v>274.2921113967896</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -569,6 +603,12 @@
       <c r="F6" t="n">
         <v>304.2297959327698</v>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -585,6 +625,12 @@
       <c r="F7" t="n">
         <v>370.6404089927673</v>
       </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -600,6 +646,12 @@
       </c>
       <c r="F8" t="n">
         <v>820.9195137023926</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -621,6 +673,12 @@
       <c r="F9" t="n">
         <v>126.2733936309814</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2368421052631579</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -637,6 +695,12 @@
       <c r="F10" t="n">
         <v>158.5655570030212</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9393939393939394</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -653,6 +717,12 @@
       <c r="F11" t="n">
         <v>163.5709404945374</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -669,6 +739,12 @@
       <c r="F12" t="n">
         <v>170.6489324569702</v>
       </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -685,6 +761,12 @@
       <c r="F13" t="n">
         <v>183.0564737319946</v>
       </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -701,6 +783,12 @@
       <c r="F14" t="n">
         <v>218.9686298370361</v>
       </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -716,6 +804,12 @@
       </c>
       <c r="F15" t="n">
         <v>491.8942451477051</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -737,6 +831,12 @@
       <c r="F16" t="n">
         <v>188.7049674987793</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04098360655737705</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -753,6 +853,12 @@
       <c r="F17" t="n">
         <v>203.0534267425537</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.7195789473684211</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2970439189189189</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -769,6 +875,12 @@
       <c r="F18" t="n">
         <v>225.0454425811768</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5362318840579711</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -785,6 +897,12 @@
       <c r="F19" t="n">
         <v>242.2521114349365</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9615384615384616</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -801,6 +919,12 @@
       <c r="F20" t="n">
         <v>255.6629180908203</v>
       </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -817,6 +941,12 @@
       <c r="F21" t="n">
         <v>333.1972122192382</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -832,6 +962,12 @@
       </c>
       <c r="F22" t="n">
         <v>567.2168731689453</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -853,6 +989,12 @@
       <c r="F23" t="n">
         <v>78.09734344482422</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -869,6 +1011,12 @@
       <c r="F24" t="n">
         <v>88.76276016235352</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9696969696969697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -885,6 +1033,12 @@
       <c r="F25" t="n">
         <v>95.30168771743774</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -901,6 +1055,12 @@
       <c r="F26" t="n">
         <v>102.7618646621704</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -917,6 +1077,12 @@
       <c r="F27" t="n">
         <v>117.6915168762207</v>
       </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -933,6 +1099,12 @@
       <c r="F28" t="n">
         <v>164.545726776123</v>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -948,6 +1120,12 @@
       </c>
       <c r="F29" t="n">
         <v>604.3715476989746</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -967,7 +1145,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3734550476074</v>
+        <v>172.0788478851318</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>275.7939696311951</v>
+        <v>190.9536600112915</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -999,7 +1189,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>374.4151592254639</v>
+        <v>251.0011196136475</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9100790513833992</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.152418723070897</v>
       </c>
     </row>
     <row r="33">
@@ -1015,7 +1211,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>514.5232677459717</v>
+        <v>289.543628692627</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2712842712842712</v>
       </c>
     </row>
     <row r="34">
@@ -1031,7 +1233,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>611.9069457054138</v>
+        <v>331.144392490387</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.726010101010101</v>
       </c>
     </row>
     <row r="35">
@@ -1047,7 +1255,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>842.7878737449643</v>
+        <v>453.830623626709</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1063,7 +1277,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1741.096019744873</v>
+        <v>625.4055500030518</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1089,6 +1309,12 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1105,6 +1331,12 @@
       <c r="F38" t="n">
         <v>85.36499738693237</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1121,6 +1353,12 @@
       <c r="F39" t="n">
         <v>100.7318496704102</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1137,6 +1375,12 @@
       <c r="F40" t="n">
         <v>111.8571758270264</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1153,6 +1397,12 @@
       <c r="F41" t="n">
         <v>124.3176460266113</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1169,6 +1419,12 @@
       <c r="F42" t="n">
         <v>153.5950183868408</v>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1184,6 +1440,12 @@
       </c>
       <c r="F43" t="n">
         <v>371.3607788085938</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1205,6 +1467,12 @@
       <c r="F44" t="n">
         <v>43.68686676025391</v>
       </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1221,6 +1489,12 @@
       <c r="F45" t="n">
         <v>62.81991004943848</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.8599667774086379</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -1237,6 +1511,12 @@
       <c r="F46" t="n">
         <v>64.81379270553589</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1253,6 +1533,12 @@
       <c r="F47" t="n">
         <v>68.49730014801025</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1269,6 +1555,12 @@
       <c r="F48" t="n">
         <v>78.67467403411865</v>
       </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1285,6 +1577,12 @@
       <c r="F49" t="n">
         <v>98.59097003936762</v>
       </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -1300,6 +1598,12 @@
       </c>
       <c r="F50" t="n">
         <v>248.8036155700684</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1321,6 +1625,12 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1337,6 +1647,12 @@
       <c r="F52" t="n">
         <v>63.41023445129395</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -1353,6 +1669,12 @@
       <c r="F53" t="n">
         <v>91.51506423950195</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1369,6 +1691,12 @@
       <c r="F54" t="n">
         <v>95.63827514648438</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -1385,6 +1713,12 @@
       <c r="F55" t="n">
         <v>101.5000343322754</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -1401,6 +1735,12 @@
       <c r="F56" t="n">
         <v>142.8889751434326</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.9876543209876543</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -1416,6 +1756,12 @@
       </c>
       <c r="F57" t="n">
         <v>265.0561332702637</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1437,6 +1783,12 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -1453,6 +1805,12 @@
       <c r="F59" t="n">
         <v>35.86342334747314</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.7551247165532879</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -1469,6 +1827,12 @@
       <c r="F60" t="n">
         <v>38.86032104492188</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -1485,6 +1849,12 @@
       <c r="F61" t="n">
         <v>41.92471504211426</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -1501,6 +1871,12 @@
       <c r="F62" t="n">
         <v>49.28994178771973</v>
       </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -1517,6 +1893,12 @@
       <c r="F63" t="n">
         <v>72.81374931335449</v>
       </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -1532,6 +1914,12 @@
       </c>
       <c r="F64" t="n">
         <v>34310.37449836731</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1553,6 +1941,12 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -1569,6 +1963,12 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -1585,6 +1985,12 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -1599,7 +2005,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>112.2841835021973</v>
+        <v>77.75890827178955</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1615,7 +2027,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>174.7292280197144</v>
+        <v>111.2293004989624</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6766666666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -1631,7 +2049,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>319.1325902938842</v>
+        <v>151.3265013694763</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +2071,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>669.2070960998535</v>
+        <v>215.8746719360352</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1673,6 +2103,12 @@
       <c r="F72" t="n">
         <v>2.825736999511719</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2282608695652174</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -1689,6 +2125,12 @@
       <c r="F73" t="n">
         <v>7.102513313293457</v>
       </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
@@ -1705,6 +2147,12 @@
       <c r="F74" t="n">
         <v>8.638679981231689</v>
       </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3723404255319149</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -1721,6 +2169,12 @@
       <c r="F75" t="n">
         <v>10.34903526306152</v>
       </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.4268292682926829</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -1737,6 +2191,12 @@
       <c r="F76" t="n">
         <v>15.75404405593872</v>
       </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.4943820224719101</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
@@ -1753,6 +2213,12 @@
       <c r="F77" t="n">
         <v>48.25725555419917</v>
       </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.6049265605875151</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
@@ -1768,6 +2234,12 @@
       </c>
       <c r="F78" t="n">
         <v>115.553617477417</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1789,6 +2261,12 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3043478260869565</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -1805,6 +2283,12 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3409090909090909</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
@@ -1821,6 +2305,12 @@
       <c r="F81" t="n">
         <v>0.1081228256225586</v>
       </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3846153846153846</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
@@ -1837,6 +2327,12 @@
       <c r="F82" t="n">
         <v>6.307601928710938</v>
       </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.4222222222222222</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -1853,6 +2349,12 @@
       <c r="F83" t="n">
         <v>9.748399257659912</v>
       </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4657534246575342</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -1869,6 +2371,12 @@
       <c r="F84" t="n">
         <v>23.48835468292236</v>
       </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
@@ -1884,6 +2392,12 @@
       </c>
       <c r="F85" t="n">
         <v>97.73993492126465</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="86">
@@ -1905,6 +2419,12 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -1921,6 +2441,12 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.3105312208760485</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -1937,6 +2463,12 @@
       <c r="F88" t="n">
         <v>2.044439315795898</v>
       </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.4395604395604396</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
@@ -1953,6 +2485,12 @@
       <c r="F89" t="n">
         <v>7.715463638305664</v>
       </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5333333333333333</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
@@ -1969,6 +2507,12 @@
       <c r="F90" t="n">
         <v>17.01879501342773</v>
       </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6219512195121951</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
@@ -1985,6 +2529,12 @@
       <c r="F91" t="n">
         <v>29.80804443359374</v>
       </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8494623655913979</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -2000,6 +2550,12 @@
       </c>
       <c r="F92" t="n">
         <v>267.0910358428955</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2021,6 +2577,12 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
+      <c r="G93" t="n">
+        <v>0.8817204301075269</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3012048192771085</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
@@ -2037,6 +2599,12 @@
       <c r="F94" t="n">
         <v>3.490233421325684</v>
       </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3571428571428572</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
@@ -2053,6 +2621,12 @@
       <c r="F95" t="n">
         <v>4.081606864929199</v>
       </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -2069,6 +2643,12 @@
       <c r="F96" t="n">
         <v>4.827260971069336</v>
       </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5063291139240507</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
@@ -2085,6 +2665,12 @@
       <c r="F97" t="n">
         <v>5.093991756439209</v>
       </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5662650602409639</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
@@ -2101,6 +2687,12 @@
       <c r="F98" t="n">
         <v>6.979465484619141</v>
       </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.7380654761904761</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
@@ -2116,6 +2708,12 @@
       </c>
       <c r="F99" t="n">
         <v>47.22189903259277</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2135,7 +2733,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>28.57875823974609</v>
+        <v>5.225181579589844</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2151,7 +2755,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>32.70033597946167</v>
+        <v>9.687578678131104</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.6896634615384616</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.09413006756756757</v>
       </c>
     </row>
     <row r="102">
@@ -2167,7 +2777,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>38.6161208152771</v>
+        <v>12.34829425811768</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.2773644388398487</v>
       </c>
     </row>
     <row r="103">
@@ -2183,7 +2799,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>57.10518360137939</v>
+        <v>18.17548274993896</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.3626808100289296</v>
       </c>
     </row>
     <row r="104">
@@ -2199,7 +2821,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>102.5222539901733</v>
+        <v>62.39724159240723</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.4612332112332113</v>
       </c>
     </row>
     <row r="105">
@@ -2215,7 +2843,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>189.7391319274901</v>
+        <v>115.1219725608825</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.6546666666666665</v>
       </c>
     </row>
     <row r="106">
@@ -2231,7 +2865,13 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>439.5413398742676</v>
+        <v>280.9844017028809</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="107">
@@ -2257,6 +2897,12 @@
       <c r="F107" t="n">
         <v>100.7542610168457</v>
       </c>
+      <c r="G107" t="n">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.7758620689655172</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -2273,6 +2919,12 @@
       <c r="F108" t="n">
         <v>110.7034921646118</v>
       </c>
+      <c r="G108" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9767441860465116</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
@@ -2289,6 +2941,12 @@
       <c r="F109" t="n">
         <v>129.6276450157166</v>
       </c>
+      <c r="G109" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
@@ -2305,6 +2963,12 @@
       <c r="F110" t="n">
         <v>141.6233777999878</v>
       </c>
+      <c r="G110" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
@@ -2321,6 +2985,12 @@
       <c r="F111" t="n">
         <v>156.5852761268616</v>
       </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
@@ -2337,6 +3007,12 @@
       <c r="F112" t="n">
         <v>204.0047764778137</v>
       </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
@@ -2352,6 +3028,12 @@
       </c>
       <c r="F113" t="n">
         <v>8048.917531967163</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2373,6 +3055,12 @@
       <c r="F114" t="n">
         <v>67.78168678283691</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.7192982456140351</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
@@ -2389,6 +3077,12 @@
       <c r="F115" t="n">
         <v>76.0562539100647</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
@@ -2405,6 +3099,12 @@
       <c r="F116" t="n">
         <v>89.28966522216797</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.9738529014844804</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
@@ -2421,6 +3121,12 @@
       <c r="F117" t="n">
         <v>94.53332424163818</v>
       </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
@@ -2437,6 +3143,12 @@
       <c r="F118" t="n">
         <v>98.03754091262817</v>
       </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
@@ -2453,6 +3165,12 @@
       <c r="F119" t="n">
         <v>124.8469829559326</v>
       </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
@@ -2468,6 +3186,12 @@
       </c>
       <c r="F120" t="n">
         <v>316.0357475280762</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2489,6 +3213,12 @@
       <c r="F121" t="n">
         <v>103.6512851715088</v>
       </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
@@ -2505,6 +3235,12 @@
       <c r="F122" t="n">
         <v>125.1491546630859</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.5672727272727273</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.5217391304347826</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
@@ -2521,6 +3257,12 @@
       <c r="F123" t="n">
         <v>127.7492046356201</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
@@ -2537,6 +3279,12 @@
       <c r="F124" t="n">
         <v>133.6369514465332</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
@@ -2553,6 +3301,12 @@
       <c r="F125" t="n">
         <v>150.5477428436279</v>
       </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
@@ -2569,6 +3323,12 @@
       <c r="F126" t="n">
         <v>189.1092777252197</v>
       </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
@@ -2584,6 +3344,12 @@
       </c>
       <c r="F127" t="n">
         <v>505.9397220611572</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2605,6 +3371,12 @@
       <c r="F128" t="n">
         <v>31.2812328338623</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
@@ -2621,6 +3393,12 @@
       <c r="F129" t="n">
         <v>48.86866807937622</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
@@ -2637,6 +3415,12 @@
       <c r="F130" t="n">
         <v>51.86080932617188</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
@@ -2653,6 +3437,12 @@
       <c r="F131" t="n">
         <v>55.84836006164551</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
@@ -2669,6 +3459,12 @@
       <c r="F132" t="n">
         <v>63.80409002304077</v>
       </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
@@ -2685,6 +3481,12 @@
       <c r="F133" t="n">
         <v>92.74034500122069</v>
       </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
@@ -2700,6 +3502,12 @@
       </c>
       <c r="F134" t="n">
         <v>5535.496234893799</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2719,7 +3527,13 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>140.3665542602539</v>
+        <v>112.4799251556396</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2735,7 +3549,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>159.6192002296448</v>
+        <v>119.5937514305115</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.1376190476190476</v>
       </c>
     </row>
     <row r="137">
@@ -2751,7 +3571,13 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>209.1418504714966</v>
+        <v>150.6067514419556</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9312304075235109</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.5027777777777778</v>
       </c>
     </row>
     <row r="138">
@@ -2767,7 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>254.1882991790771</v>
+        <v>172.5533008575439</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -2783,7 +3615,13 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>336.7065787315369</v>
+        <v>203.5812139511108</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9496794871794871</v>
       </c>
     </row>
     <row r="140">
@@ -2799,7 +3637,13 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>578.3554315567017</v>
+        <v>293.1970834732055</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2815,7 +3659,13 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1025.902986526489</v>
+        <v>434.6280097961426</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2841,6 +3691,12 @@
       <c r="F142" t="n">
         <v>5.188465118408203</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.3506493506493507</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.4923076923076923</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
@@ -2857,6 +3713,12 @@
       <c r="F143" t="n">
         <v>12.96604871749878</v>
       </c>
+      <c r="G143" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8064516129032258</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
@@ -2873,6 +3735,12 @@
       <c r="F144" t="n">
         <v>16.9525146484375</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.9663793103448276</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9629629629629629</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
@@ -2889,6 +3757,12 @@
       <c r="F145" t="n">
         <v>18.97287368774414</v>
       </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9761904761904762</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
@@ -2905,6 +3779,12 @@
       <c r="F146" t="n">
         <v>22.93896675109863</v>
       </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
@@ -2921,6 +3801,12 @@
       <c r="F147" t="n">
         <v>30.84994554519653</v>
       </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -2936,6 +3822,12 @@
       </c>
       <c r="F148" t="n">
         <v>81.91227912902832</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2957,6 +3849,12 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.4857142857142857</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
@@ -2973,6 +3871,12 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.8235294117647058</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
@@ -2989,6 +3893,12 @@
       <c r="F151" t="n">
         <v>6.377220153808594</v>
       </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.9565217391304348</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -3005,6 +3915,12 @@
       <c r="F152" t="n">
         <v>12.40122318267822</v>
       </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.9743589743589743</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
@@ -3021,6 +3937,12 @@
       <c r="F153" t="n">
         <v>21.07828855514526</v>
       </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
@@ -3037,6 +3959,12 @@
       <c r="F154" t="n">
         <v>29.45783138275146</v>
       </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
@@ -3052,6 +3980,12 @@
       </c>
       <c r="F155" t="n">
         <v>58.84265899658203</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3073,6 +4007,12 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
@@ -3089,6 +4029,12 @@
       <c r="F157" t="n">
         <v>1.145458221435547</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5282482223658694</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -3105,6 +4051,12 @@
       <c r="F158" t="n">
         <v>10.08343696594238</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.8648648648648649</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
@@ -3121,6 +4073,12 @@
       <c r="F159" t="n">
         <v>19.62876319885254</v>
       </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -3137,6 +4095,12 @@
       <c r="F160" t="n">
         <v>27.72426605224609</v>
       </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -3153,6 +4117,12 @@
       <c r="F161" t="n">
         <v>33.08029174804687</v>
       </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -3168,6 +4138,12 @@
       </c>
       <c r="F162" t="n">
         <v>98.3426570892334</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3189,6 +4165,12 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.7297297297297297</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -3205,6 +4187,12 @@
       <c r="F164" t="n">
         <v>6.981611251831055</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9655172413793104</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
@@ -3221,6 +4209,12 @@
       <c r="F165" t="n">
         <v>7.9803466796875</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
@@ -3237,6 +4231,12 @@
       <c r="F166" t="n">
         <v>8.978366851806641</v>
       </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
@@ -3253,6 +4253,12 @@
       <c r="F167" t="n">
         <v>10.96624135971069</v>
       </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
@@ -3269,6 +4275,12 @@
       <c r="F168" t="n">
         <v>16.3942813873291</v>
       </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
@@ -3284,6 +4296,12 @@
       </c>
       <c r="F169" t="n">
         <v>92.58913993835449</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3303,7 +4321,13 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>11.2302303314209</v>
+        <v>9.973049163818359</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3319,7 +4343,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>18.80158185958862</v>
+        <v>11.94745302200317</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3335,7 +4365,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>25.58004856109619</v>
+        <v>15.95693826675415</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3351,7 +4387,13 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>34.82067584991455</v>
+        <v>21.94106578826904</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6256038647342995</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="174">
@@ -3367,7 +4409,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>48.08872938156128</v>
+        <v>27.74477005004883</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.7400696864111498</v>
       </c>
     </row>
     <row r="175">
@@ -3383,7 +4431,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>77.41941213607787</v>
+        <v>39.30773735046387</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.9600644122383252</v>
       </c>
     </row>
     <row r="176">
@@ -3399,7 +4453,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>161.9193553924561</v>
+        <v>83.41193199157715</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -3425,6 +4485,12 @@
       <c r="F177" t="n">
         <v>4.28462028503418</v>
       </c>
+      <c r="G177" t="n">
+        <v>0.1747572815533981</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n"/>
@@ -3441,6 +4507,12 @@
       <c r="F178" t="n">
         <v>13.69765996932983</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
@@ -3457,6 +4529,12 @@
       <c r="F179" t="n">
         <v>14.92857933044434</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
@@ -3473,6 +4551,12 @@
       <c r="F180" t="n">
         <v>15.84255695343018</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
@@ -3489,6 +4573,12 @@
       <c r="F181" t="n">
         <v>16.93087816238403</v>
       </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
@@ -3505,6 +4595,12 @@
       <c r="F182" t="n">
         <v>19.92630958557129</v>
       </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
@@ -3520,6 +4616,12 @@
       </c>
       <c r="F183" t="n">
         <v>4190.004587173462</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3541,6 +4643,12 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
@@ -3557,6 +4665,12 @@
       <c r="F185" t="n">
         <v>0</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.6358865248226955</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.9666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
@@ -3573,6 +4687,12 @@
       <c r="F186" t="n">
         <v>3.101706504821777</v>
       </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
@@ -3589,6 +4709,12 @@
       <c r="F187" t="n">
         <v>10.41579246520996</v>
       </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
@@ -3605,6 +4731,12 @@
       <c r="F188" t="n">
         <v>16.73620939254761</v>
       </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
@@ -3621,6 +4753,12 @@
       <c r="F189" t="n">
         <v>25.69080591201782</v>
       </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
@@ -3636,6 +4774,12 @@
       </c>
       <c r="F190" t="n">
         <v>602.4112701416016</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -3657,6 +4801,12 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
@@ -3673,6 +4823,12 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
+      <c r="G192" t="n">
+        <v>0.2236559139784946</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
@@ -3689,6 +4845,12 @@
       <c r="F193" t="n">
         <v>6.623506546020508</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.4035087719298245</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
@@ -3705,6 +4867,12 @@
       <c r="F194" t="n">
         <v>15.26355743408203</v>
       </c>
+      <c r="G194" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
@@ -3721,6 +4889,12 @@
       <c r="F195" t="n">
         <v>23.15449714660645</v>
       </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
@@ -3737,6 +4911,12 @@
       <c r="F196" t="n">
         <v>29.24637794494629</v>
       </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
@@ -3752,6 +4932,12 @@
       </c>
       <c r="F197" t="n">
         <v>2486.481428146362</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3773,6 +4959,12 @@
       <c r="F198" t="n">
         <v>0</v>
       </c>
+      <c r="G198" t="n">
+        <v>0.1868131868131868</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
@@ -3789,6 +4981,12 @@
       <c r="F199" t="n">
         <v>8.379757404327393</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
@@ -3805,6 +5003,12 @@
       <c r="F200" t="n">
         <v>9.739041328430176</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
@@ -3821,6 +5025,12 @@
       <c r="F201" t="n">
         <v>10.69891452789307</v>
       </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
@@ -3837,6 +5047,12 @@
       <c r="F202" t="n">
         <v>11.82198524475098</v>
       </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
@@ -3853,6 +5069,12 @@
       <c r="F203" t="n">
         <v>13.99974822998047</v>
       </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
@@ -3868,6 +5090,12 @@
       </c>
       <c r="F204" t="n">
         <v>2764.303684234619</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3887,7 +5115,13 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>29.95562553405762</v>
+        <v>9.330034255981445</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3903,7 +5137,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>32.81630277633667</v>
+        <v>14.13719654083252</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3919,7 +5159,13 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>37.89836168289185</v>
+        <v>16.21448993682861</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.4097593582887701</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="208">
@@ -3935,7 +5181,13 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>44.930100440979</v>
+        <v>17.95148849487305</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.9245014245014245</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.7789886660854403</v>
       </c>
     </row>
     <row r="209">
@@ -3951,7 +5203,13 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>58.23355913162231</v>
+        <v>19.92738246917725</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.9343715239154615</v>
       </c>
     </row>
     <row r="210">
@@ -3967,7 +5225,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>116.9528603553771</v>
+        <v>37.7814769744873</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -3983,7 +5247,13 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>242.6595687866211</v>
+        <v>744.5070743560791</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4009,6 +5279,12 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.2621359223300971</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.5576923076923077</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n"/>
@@ -4025,6 +5301,12 @@
       <c r="F213" t="n">
         <v>1.995694637298584</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.8165136054421769</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
@@ -4041,6 +5323,12 @@
       <c r="F214" t="n">
         <v>2.991914749145508</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n"/>
@@ -4057,6 +5345,12 @@
       <c r="F215" t="n">
         <v>3.000974655151367</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
@@ -4073,6 +5367,12 @@
       <c r="F216" t="n">
         <v>3.99017333984375</v>
       </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
@@ -4089,6 +5389,12 @@
       <c r="F217" t="n">
         <v>4.989385604858398</v>
       </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
@@ -4104,6 +5410,12 @@
       </c>
       <c r="F218" t="n">
         <v>17.95268058776855</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4125,6 +5437,12 @@
       <c r="F219" t="n">
         <v>0</v>
       </c>
+      <c r="G219" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.8043478260869565</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
@@ -4141,6 +5459,12 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
@@ -4157,6 +5481,12 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
@@ -4173,6 +5503,12 @@
       <c r="F222" t="n">
         <v>1.997470855712891</v>
       </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
@@ -4189,6 +5525,12 @@
       <c r="F223" t="n">
         <v>2.994537353515625</v>
       </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n"/>
@@ -4205,6 +5547,12 @@
       <c r="F224" t="n">
         <v>16.65647029876709</v>
       </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
@@ -4220,6 +5568,12 @@
       </c>
       <c r="F225" t="n">
         <v>135.3557109832764</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4241,6 +5595,12 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2325581395348837</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
@@ -4257,6 +5617,12 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
@@ -4273,6 +5639,12 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.9523809523809523</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
@@ -4289,6 +5661,12 @@
       <c r="F229" t="n">
         <v>2.980232238769531</v>
       </c>
+      <c r="G229" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
@@ -4305,6 +5683,12 @@
       <c r="F230" t="n">
         <v>3.069162368774414</v>
       </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n"/>
@@ -4321,6 +5705,12 @@
       <c r="F231" t="n">
         <v>17.07758903503418</v>
       </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
@@ -4336,6 +5726,12 @@
       </c>
       <c r="F232" t="n">
         <v>97.16010093688965</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4357,6 +5753,12 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.9354838709677419</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
@@ -4373,6 +5775,12 @@
       <c r="F234" t="n">
         <v>1.992952823638916</v>
       </c>
+      <c r="G234" t="n">
+        <v>0.7693108974358975</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
@@ -4389,6 +5797,12 @@
       <c r="F235" t="n">
         <v>2.98309326171875</v>
       </c>
+      <c r="G235" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n"/>
@@ -4405,6 +5819,12 @@
       <c r="F236" t="n">
         <v>2.992868423461914</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
@@ -4421,6 +5841,12 @@
       <c r="F237" t="n">
         <v>3.95435094833374</v>
       </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
@@ -4437,6 +5863,12 @@
       <c r="F238" t="n">
         <v>5.387771129608151</v>
       </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
@@ -4452,6 +5884,12 @@
       </c>
       <c r="F239" t="n">
         <v>47.87206649780273</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -4471,7 +5909,13 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>12.86005973815918</v>
+        <v>1.96075439453125</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4487,7 +5931,13 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>16.29009246826172</v>
+        <v>1.994132995605469</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4503,7 +5953,13 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>17.95822381973267</v>
+        <v>2.987205982208252</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -4519,7 +5975,13 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>20.47324180603027</v>
+        <v>2.992630004882812</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -4535,7 +5997,13 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>27.72659063339233</v>
+        <v>3.246724605560303</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.708079268292683</v>
       </c>
     </row>
     <row r="245">
@@ -4551,7 +6019,13 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>57.8920722007751</v>
+        <v>4.97148036956787</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.9605799373040751</v>
       </c>
     </row>
     <row r="246">
@@ -4567,7 +6041,13 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>179.8183917999268</v>
+        <v>6.981372833251953</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4593,6 +6073,12 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
@@ -4609,6 +6095,12 @@
       <c r="F248" t="n">
         <v>3.988981246948242</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n"/>
@@ -4625,6 +6117,12 @@
       <c r="F249" t="n">
         <v>4.98652458190918</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n"/>
@@ -4641,6 +6139,12 @@
       <c r="F250" t="n">
         <v>5.983829498291016</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n"/>
@@ -4657,6 +6161,12 @@
       <c r="F251" t="n">
         <v>6.981372833251953</v>
       </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n"/>
@@ -4673,6 +6183,12 @@
       <c r="F252" t="n">
         <v>8.979880809783936</v>
       </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n"/>
@@ -4688,6 +6204,12 @@
       </c>
       <c r="F253" t="n">
         <v>31.22425079345703</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -4709,6 +6231,12 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n"/>
@@ -4725,6 +6253,12 @@
       <c r="F255" t="n">
         <v>0</v>
       </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n"/>
@@ -4741,6 +6275,12 @@
       <c r="F256" t="n">
         <v>0</v>
       </c>
+      <c r="G256" t="n">
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n"/>
@@ -4757,6 +6297,12 @@
       <c r="F257" t="n">
         <v>4.056930541992188</v>
       </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n"/>
@@ -4773,6 +6319,12 @@
       <c r="F258" t="n">
         <v>5.98907470703125</v>
       </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n"/>
@@ -4789,6 +6341,12 @@
       <c r="F259" t="n">
         <v>19.61793899536133</v>
       </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n"/>
@@ -4804,6 +6362,12 @@
       </c>
       <c r="F260" t="n">
         <v>57.13629722595215</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -4825,6 +6389,12 @@
       <c r="F261" t="n">
         <v>0</v>
       </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n"/>
@@ -4841,6 +6411,12 @@
       <c r="F262" t="n">
         <v>0</v>
       </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n"/>
@@ -4857,6 +6433,12 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n"/>
@@ -4873,6 +6455,12 @@
       <c r="F264" t="n">
         <v>4.984140396118164</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n"/>
@@ -4889,6 +6477,12 @@
       <c r="F265" t="n">
         <v>7.609844207763672</v>
       </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n"/>
@@ -4905,6 +6499,12 @@
       <c r="F266" t="n">
         <v>21.50473594665527</v>
       </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n"/>
@@ -4920,6 +6520,12 @@
       </c>
       <c r="F267" t="n">
         <v>195.0221061706543</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4941,6 +6547,12 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n"/>
@@ -4957,6 +6569,12 @@
       <c r="F269" t="n">
         <v>2.99072265625</v>
       </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n"/>
@@ -4973,6 +6591,12 @@
       <c r="F270" t="n">
         <v>3.988027572631836</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n"/>
@@ -4989,6 +6613,12 @@
       <c r="F271" t="n">
         <v>4.552245140075684</v>
       </c>
+      <c r="G271" t="n">
+        <v>0.527046783625731</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n"/>
@@ -5005,6 +6635,12 @@
       <c r="F272" t="n">
         <v>5.119800567626953</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n"/>
@@ -5021,6 +6657,12 @@
       <c r="F273" t="n">
         <v>8.007729053497314</v>
       </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n"/>
@@ -5036,6 +6678,12 @@
       </c>
       <c r="F274" t="n">
         <v>57.65295028686523</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -5055,7 +6703,13 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>31.91018104553223</v>
+        <v>2.958774566650391</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5071,7 +6725,13 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>33.9028000831604</v>
+        <v>2.991437911987305</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5087,7 +6747,13 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>37.9367470741272</v>
+        <v>3.989279270172119</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5103,7 +6769,13 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>44.47197914123535</v>
+        <v>4.986405372619629</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -5119,7 +6791,13 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>56.30147457122803</v>
+        <v>5.984723567962646</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.8377403846153846</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.796969696969697</v>
       </c>
     </row>
     <row r="280">
@@ -5135,7 +6813,13 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>107.7131628990171</v>
+        <v>8.090531826019285</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -5151,7 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>271.9683647155762</v>
+        <v>51.86605453491211</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -5177,6 +6867,12 @@
       <c r="F282" t="n">
         <v>13.37623596191406</v>
       </c>
+      <c r="G282" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.5283018867924528</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n"/>
@@ -5193,6 +6889,12 @@
       <c r="F283" t="n">
         <v>23.89886379241943</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.8130826271186441</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.9487179487179487</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n"/>
@@ -5209,6 +6911,12 @@
       <c r="F284" t="n">
         <v>27.923583984375</v>
       </c>
+      <c r="G284" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n"/>
@@ -5225,6 +6933,12 @@
       <c r="F285" t="n">
         <v>29.92236614227295</v>
       </c>
+      <c r="G285" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n"/>
@@ -5241,6 +6955,12 @@
       <c r="F286" t="n">
         <v>32.91594982147217</v>
       </c>
+      <c r="G286" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n"/>
@@ -5257,6 +6977,12 @@
       <c r="F287" t="n">
         <v>44.38823461532591</v>
       </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n"/>
@@ -5272,6 +6998,12 @@
       </c>
       <c r="F288" t="n">
         <v>101.4668941497803</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -5293,6 +7025,12 @@
       <c r="F289" t="n">
         <v>1.989603042602539</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n"/>
@@ -5309,6 +7047,12 @@
       <c r="F290" t="n">
         <v>4.518342018127445</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n"/>
@@ -5325,6 +7069,12 @@
       <c r="F291" t="n">
         <v>12.13175058364868</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n"/>
@@ -5341,6 +7091,12 @@
       <c r="F292" t="n">
         <v>20.22814750671387</v>
       </c>
+      <c r="G292" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n"/>
@@ -5357,6 +7113,12 @@
       <c r="F293" t="n">
         <v>27.49663591384888</v>
       </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n"/>
@@ -5373,6 +7135,12 @@
       <c r="F294" t="n">
         <v>32.39959478378296</v>
       </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n"/>
@@ -5388,6 +7156,12 @@
       </c>
       <c r="F295" t="n">
         <v>71.7470645904541</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -5409,6 +7183,12 @@
       <c r="F296" t="n">
         <v>9.052515029907227</v>
       </c>
+      <c r="G296" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.2380952380952381</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n"/>
@@ -5425,6 +7205,12 @@
       <c r="F297" t="n">
         <v>14.03102874755859</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.3037974683544304</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.7756272401433691</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n"/>
@@ -5441,6 +7227,12 @@
       <c r="F298" t="n">
         <v>27.44889259338379</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n"/>
@@ -5457,6 +7249,12 @@
       <c r="F299" t="n">
         <v>31.16130828857422</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n"/>
@@ -5473,6 +7271,12 @@
       <c r="F300" t="n">
         <v>32.33790397644043</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n"/>
@@ -5489,6 +7293,12 @@
       <c r="F301" t="n">
         <v>44.64240074157714</v>
       </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n"/>
@@ -5504,6 +7314,12 @@
       </c>
       <c r="F302" t="n">
         <v>124.6707439422607</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -5525,6 +7341,12 @@
       <c r="F303" t="n">
         <v>0</v>
       </c>
+      <c r="G303" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.78125</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n"/>
@@ -5541,6 +7363,12 @@
       <c r="F304" t="n">
         <v>8.976459503173828</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n"/>
@@ -5557,6 +7385,12 @@
       <c r="F305" t="n">
         <v>9.981632232666016</v>
       </c>
+      <c r="G305" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n"/>
@@ -5573,6 +7407,12 @@
       <c r="F306" t="n">
         <v>10.97273826599121</v>
       </c>
+      <c r="G306" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n"/>
@@ -5589,6 +7429,12 @@
       <c r="F307" t="n">
         <v>12.96490430831909</v>
       </c>
+      <c r="G307" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n"/>
@@ -5605,6 +7451,12 @@
       <c r="F308" t="n">
         <v>18.98508071899414</v>
       </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n"/>
@@ -5620,6 +7472,12 @@
       </c>
       <c r="F309" t="n">
         <v>170.8016395568848</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -5639,7 +7497,13 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>26.93533897399902</v>
+        <v>21.93403244018555</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -5655,7 +7519,13 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>30.90912103652954</v>
+        <v>24.0424633026123</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.2110119047619048</v>
       </c>
     </row>
     <row r="312">
@@ -5671,7 +7541,13 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>40.89087247848511</v>
+        <v>31.90332651138306</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.6439393939393939</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.5504310344827587</v>
       </c>
     </row>
     <row r="313">
@@ -5687,7 +7563,13 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>47.84643650054932</v>
+        <v>36.74328327178955</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.8473193473193473</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.770979020979021</v>
       </c>
     </row>
     <row r="314">
@@ -5703,7 +7585,13 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>64.86713886260986</v>
+        <v>41.2413477897644</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.954004329004329</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.9252136752136753</v>
       </c>
     </row>
     <row r="315">
@@ -5719,7 +7607,13 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>123.4590172767638</v>
+        <v>60.51129102706908</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5735,7 +7629,13 @@
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>218.9421653747559</v>
+        <v>128.5982131958008</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -5761,6 +7661,12 @@
       <c r="F317" t="n">
         <v>0</v>
       </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n"/>
@@ -5777,6 +7683,12 @@
       <c r="F318" t="n">
         <v>2.991914749145508</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.9661494252873564</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n"/>
@@ -5793,6 +7705,12 @@
       <c r="F319" t="n">
         <v>3.988981246948242</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n"/>
@@ -5809,6 +7727,12 @@
       <c r="F320" t="n">
         <v>4.964470863342285</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n"/>
@@ -5825,6 +7749,12 @@
       <c r="F321" t="n">
         <v>5.013465881347656</v>
       </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n"/>
@@ -5841,6 +7771,12 @@
       <c r="F322" t="n">
         <v>6.982910633087158</v>
       </c>
+      <c r="G322" t="n">
+        <v>1</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n"/>
@@ -5856,6 +7792,12 @@
       </c>
       <c r="F323" t="n">
         <v>28.89132499694824</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5877,6 +7819,12 @@
       <c r="F324" t="n">
         <v>0</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.8529411764705882</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n"/>
@@ -5893,6 +7841,12 @@
       <c r="F325" t="n">
         <v>0</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n"/>
@@ -5909,6 +7863,12 @@
       <c r="F326" t="n">
         <v>0</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n"/>
@@ -5925,6 +7885,12 @@
       <c r="F327" t="n">
         <v>2.994775772094727</v>
       </c>
+      <c r="G327" t="n">
+        <v>1</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n"/>
@@ -5941,6 +7907,12 @@
       <c r="F328" t="n">
         <v>3.99470329284668</v>
       </c>
+      <c r="G328" t="n">
+        <v>1</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n"/>
@@ -5957,6 +7929,12 @@
       <c r="F329" t="n">
         <v>17.99522638320922</v>
       </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n"/>
@@ -5972,6 +7950,12 @@
       </c>
       <c r="F330" t="n">
         <v>31.26859664916992</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -5993,6 +7977,12 @@
       <c r="F331" t="n">
         <v>0</v>
       </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n"/>
@@ -6009,6 +7999,12 @@
       <c r="F332" t="n">
         <v>0</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.3696866096866097</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.7175</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n"/>
@@ -6025,6 +8021,12 @@
       <c r="F333" t="n">
         <v>0</v>
       </c>
+      <c r="G333" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.9818181818181818</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n"/>
@@ -6041,6 +8043,12 @@
       <c r="F334" t="n">
         <v>3.983497619628906</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n"/>
@@ -6057,6 +8065,12 @@
       <c r="F335" t="n">
         <v>5.026340484619141</v>
       </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n"/>
@@ -6073,6 +8087,12 @@
       <c r="F336" t="n">
         <v>19.10538673400879</v>
       </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n"/>
@@ -6088,6 +8108,12 @@
       </c>
       <c r="F337" t="n">
         <v>98.03247451782227</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -6109,6 +8135,12 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n"/>
@@ -6125,6 +8157,12 @@
       <c r="F339" t="n">
         <v>2.991437911987305</v>
       </c>
+      <c r="G339" t="n">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n"/>
@@ -6141,6 +8179,12 @@
       <c r="F340" t="n">
         <v>3.988027572631836</v>
       </c>
+      <c r="G340" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n"/>
@@ -6157,6 +8201,12 @@
       <c r="F341" t="n">
         <v>4.002571105957031</v>
       </c>
+      <c r="G341" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n"/>
@@ -6173,6 +8223,12 @@
       <c r="F342" t="n">
         <v>4.989147186279297</v>
       </c>
+      <c r="G342" t="n">
+        <v>1</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n"/>
@@ -6189,6 +8245,12 @@
       <c r="F343" t="n">
         <v>7.658147811889632</v>
       </c>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n"/>
@@ -6204,6 +8266,12 @@
       </c>
       <c r="F344" t="n">
         <v>83.26125144958496</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -6223,7 +8291,13 @@
         <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>12.91513442993164</v>
+        <v>0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -6239,7 +8313,13 @@
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>20.84168195724487</v>
+        <v>2.988815307617188</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.6036637931034483</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.1830929487179487</v>
       </c>
     </row>
     <row r="347">
@@ -6255,7 +8335,13 @@
         <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>22.93848991394043</v>
+        <v>3.024518489837646</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.950595238095238</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.5696150696150696</v>
       </c>
     </row>
     <row r="348">
@@ -6271,7 +8357,13 @@
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>27.91810035705566</v>
+        <v>4.01914119720459</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.7974358974358975</v>
       </c>
     </row>
     <row r="349">
@@ -6287,7 +8379,13 @@
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>39.8600697517395</v>
+        <v>5.020976066589355</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.9493421052631579</v>
       </c>
     </row>
     <row r="350">
@@ -6303,7 +8401,13 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>68.45630407333374</v>
+        <v>7.971680164337158</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -6319,7 +8423,13 @@
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>266.2990093231201</v>
+        <v>25.92921257019043</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -6345,6 +8455,12 @@
       <c r="F352" t="n">
         <v>0</v>
       </c>
+      <c r="G352" t="n">
+        <v>0.2912621359223301</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n"/>
@@ -6361,6 +8477,12 @@
       <c r="F353" t="n">
         <v>1.994848251342773</v>
       </c>
+      <c r="G353" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.9310344827586207</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n"/>
@@ -6377,6 +8499,12 @@
       <c r="F354" t="n">
         <v>2.991199493408203</v>
       </c>
+      <c r="G354" t="n">
+        <v>0.9647556390977443</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n"/>
@@ -6393,6 +8521,12 @@
       <c r="F355" t="n">
         <v>2.993106842041016</v>
       </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n"/>
@@ -6409,6 +8543,12 @@
       <c r="F356" t="n">
         <v>3.989219665527344</v>
       </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n"/>
@@ -6425,6 +8565,12 @@
       <c r="F357" t="n">
         <v>4.987716674804688</v>
       </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n"/>
@@ -6440,6 +8586,12 @@
       </c>
       <c r="F358" t="n">
         <v>37.90163993835449</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -6461,6 +8613,12 @@
       <c r="F359" t="n">
         <v>0</v>
       </c>
+      <c r="G359" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.6607142857142857</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n"/>
@@ -6477,6 +8635,12 @@
       <c r="F360" t="n">
         <v>0</v>
       </c>
+      <c r="G360" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.9666666666666667</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n"/>
@@ -6493,6 +8657,12 @@
       <c r="F361" t="n">
         <v>0</v>
       </c>
+      <c r="G361" t="n">
+        <v>0.9782608695652174</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n"/>
@@ -6509,6 +8679,12 @@
       <c r="F362" t="n">
         <v>1.995325088500977</v>
       </c>
+      <c r="G362" t="n">
+        <v>1</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n"/>
@@ -6525,6 +8701,12 @@
       <c r="F363" t="n">
         <v>2.992868423461914</v>
       </c>
+      <c r="G363" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n"/>
@@ -6541,6 +8723,12 @@
       <c r="F364" t="n">
         <v>16.48238897323608</v>
       </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n"/>
@@ -6556,6 +8744,12 @@
       </c>
       <c r="F365" t="n">
         <v>36.69357299804688</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1</v>
+      </c>
+      <c r="H365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -6577,6 +8771,12 @@
       <c r="F366" t="n">
         <v>0</v>
       </c>
+      <c r="G366" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.2280701754385965</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n"/>
@@ -6593,6 +8793,12 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>0.5626723223753977</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.5066666666666667</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n"/>
@@ -6609,6 +8815,12 @@
       <c r="F368" t="n">
         <v>0</v>
       </c>
+      <c r="G368" t="n">
+        <v>0.9767441860465116</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.8709677419354839</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n"/>
@@ -6625,6 +8837,12 @@
       <c r="F369" t="n">
         <v>2.073526382446289</v>
       </c>
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.9787234042553191</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n"/>
@@ -6641,6 +8859,12 @@
       <c r="F370" t="n">
         <v>3.099679946899414</v>
       </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+      <c r="H370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n"/>
@@ -6657,6 +8881,12 @@
       <c r="F371" t="n">
         <v>17.30747222900389</v>
       </c>
+      <c r="G371" t="n">
+        <v>1</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n"/>
@@ -6672,6 +8902,12 @@
       </c>
       <c r="F372" t="n">
         <v>71.80356979370117</v>
+      </c>
+      <c r="G372" t="n">
+        <v>1</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -6693,6 +8929,12 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.9230769230769231</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n"/>
@@ -6709,6 +8951,12 @@
       <c r="F374" t="n">
         <v>1.979351043701172</v>
       </c>
+      <c r="G374" t="n">
+        <v>0.7755406640268048</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n"/>
@@ -6725,6 +8973,12 @@
       <c r="F375" t="n">
         <v>1.995325088500977</v>
       </c>
+      <c r="G375" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n"/>
@@ -6741,6 +8995,12 @@
       <c r="F376" t="n">
         <v>2.984285354614258</v>
       </c>
+      <c r="G376" t="n">
+        <v>1</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n"/>
@@ -6757,6 +9017,12 @@
       <c r="F377" t="n">
         <v>2.99382209777832</v>
       </c>
+      <c r="G377" t="n">
+        <v>1</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n"/>
@@ -6773,6 +9039,12 @@
       <c r="F378" t="n">
         <v>4.022359848022461</v>
       </c>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n"/>
@@ -6788,6 +9060,12 @@
       </c>
       <c r="F379" t="n">
         <v>133.7661743164062</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -6807,7 +9085,13 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>11.97266578674316</v>
+        <v>0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -6823,7 +9107,13 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>13.9293909072876</v>
+        <v>1.993870735168457</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -6839,7 +9129,13 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>15.75970649719238</v>
+        <v>2.991199493408203</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -6855,7 +9151,13 @@
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>18.80943775177002</v>
+        <v>3.057718276977539</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1143790849673203</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="384">
@@ -6871,7 +9173,13 @@
         <v>0</v>
       </c>
       <c r="F384" t="n">
-        <v>26.30519866943359</v>
+        <v>3.991425037384033</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.7794858870967742</v>
       </c>
     </row>
     <row r="385">
@@ -6887,7 +9195,13 @@
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>52.40541696548462</v>
+        <v>5.186307430267333</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.9697695852534561</v>
       </c>
     </row>
     <row r="386">
@@ -6903,7 +9217,13 @@
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>84.86843109130859</v>
+        <v>7.542610168457031</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -6929,6 +9249,12 @@
       <c r="F387" t="n">
         <v>4.274129867553711</v>
       </c>
+      <c r="G387" t="n">
+        <v>0.1727272727272727</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.8529411764705882</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n"/>
@@ -6945,6 +9271,12 @@
       <c r="F388" t="n">
         <v>14.39906358718872</v>
       </c>
+      <c r="G388" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n"/>
@@ -6961,6 +9293,12 @@
       <c r="F389" t="n">
         <v>15.9599781036377</v>
       </c>
+      <c r="G389" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n"/>
@@ -6977,6 +9315,12 @@
       <c r="F390" t="n">
         <v>17.48716831207275</v>
       </c>
+      <c r="G390" t="n">
+        <v>1</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n"/>
@@ -6993,6 +9337,12 @@
       <c r="F391" t="n">
         <v>19.09822225570679</v>
       </c>
+      <c r="G391" t="n">
+        <v>1</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n"/>
@@ -7009,6 +9359,12 @@
       <c r="F392" t="n">
         <v>24.47737455368042</v>
       </c>
+      <c r="G392" t="n">
+        <v>1</v>
+      </c>
+      <c r="H392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n"/>
@@ -7024,6 +9380,12 @@
       </c>
       <c r="F393" t="n">
         <v>3513.384819030762</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1</v>
+      </c>
+      <c r="H393" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -7045,6 +9407,12 @@
       <c r="F394" t="n">
         <v>0</v>
       </c>
+      <c r="G394" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.9310344827586207</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n"/>
@@ -7061,6 +9429,12 @@
       <c r="F395" t="n">
         <v>0</v>
       </c>
+      <c r="G395" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n"/>
@@ -7077,6 +9451,12 @@
       <c r="F396" t="n">
         <v>6.064414978027344</v>
       </c>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n"/>
@@ -7093,6 +9473,12 @@
       <c r="F397" t="n">
         <v>12.96281814575195</v>
       </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n"/>
@@ -7109,6 +9495,12 @@
       <c r="F398" t="n">
         <v>20.08187770843506</v>
       </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n"/>
@@ -7125,6 +9517,12 @@
       <c r="F399" t="n">
         <v>27.11124420166016</v>
       </c>
+      <c r="G399" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n"/>
@@ -7140,6 +9538,12 @@
       </c>
       <c r="F400" t="n">
         <v>3522.200345993042</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -7161,6 +9565,12 @@
       <c r="F401" t="n">
         <v>0</v>
       </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n"/>
@@ -7177,6 +9587,12 @@
       <c r="F402" t="n">
         <v>1.073789596557617</v>
       </c>
+      <c r="G402" t="n">
+        <v>0.6891954022988506</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.7050802139037433</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n"/>
@@ -7193,6 +9609,12 @@
       <c r="F403" t="n">
         <v>10.96534729003906</v>
       </c>
+      <c r="G403" t="n">
+        <v>0.961038961038961</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.9787234042553191</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n"/>
@@ -7209,6 +9631,12 @@
       <c r="F404" t="n">
         <v>17.69113540649414</v>
       </c>
+      <c r="G404" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n"/>
@@ -7225,6 +9653,12 @@
       <c r="F405" t="n">
         <v>25.82263946533203</v>
       </c>
+      <c r="G405" t="n">
+        <v>1</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n"/>
@@ -7241,6 +9675,12 @@
       <c r="F406" t="n">
         <v>31.81781768798828</v>
       </c>
+      <c r="G406" t="n">
+        <v>1</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n"/>
@@ -7256,6 +9696,12 @@
       </c>
       <c r="F407" t="n">
         <v>3222.093343734741</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -7277,6 +9723,12 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.9393939393939394</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n"/>
@@ -7293,6 +9745,12 @@
       <c r="F409" t="n">
         <v>8.977413177490234</v>
       </c>
+      <c r="G409" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n"/>
@@ -7309,6 +9767,12 @@
       <c r="F410" t="n">
         <v>10.00285148620605</v>
       </c>
+      <c r="G410" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n"/>
@@ -7325,6 +9789,12 @@
       <c r="F411" t="n">
         <v>10.97595691680908</v>
       </c>
+      <c r="G411" t="n">
+        <v>1</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n"/>
@@ -7341,6 +9811,12 @@
       <c r="F412" t="n">
         <v>12.3932957649231</v>
       </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n"/>
@@ -7357,6 +9833,12 @@
       <c r="F413" t="n">
         <v>15.74440002441406</v>
       </c>
+      <c r="G413" t="n">
+        <v>1</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n"/>
@@ -7372,6 +9854,12 @@
       </c>
       <c r="F414" t="n">
         <v>78639.72449302673</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -7393,6 +9881,12 @@
       <c r="F415" t="n">
         <v>0</v>
       </c>
+      <c r="G415" t="n">
+        <v>0</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n"/>
@@ -7409,6 +9903,12 @@
       <c r="F416" t="n">
         <v>0</v>
       </c>
+      <c r="G416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n"/>
@@ -7423,7 +9923,13 @@
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>35.61228513717651</v>
+        <v>15.86449146270752</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.8390322580645162</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.4579303675048356</v>
       </c>
     </row>
     <row r="418">
@@ -7439,7 +9945,13 @@
         <v>0</v>
       </c>
       <c r="F418" t="n">
-        <v>41.66829586029053</v>
+        <v>18.94998550415039</v>
+      </c>
+      <c r="G418" t="n">
+        <v>1</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.7608892921960073</v>
       </c>
     </row>
     <row r="419">
@@ -7455,7 +9967,13 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>51.86152458190918</v>
+        <v>22.84115552902222</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="420">
@@ -7471,7 +9989,13 @@
         <v>1</v>
       </c>
       <c r="F420" t="n">
-        <v>83.99515151977538</v>
+        <v>47.40848541259759</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -7487,7 +10011,13 @@
         <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>1799.17573928833</v>
+        <v>662.0008945465088</v>
+      </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -7513,6 +10043,12 @@
       <c r="F422" t="n">
         <v>9.785890579223633</v>
       </c>
+      <c r="G422" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.2682926829268293</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n"/>
@@ -7529,6 +10065,12 @@
       <c r="F423" t="n">
         <v>18.65041255950928</v>
       </c>
+      <c r="G423" t="n">
+        <v>0.7731989708404803</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.6862745098039216</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n"/>
@@ -7545,6 +10087,12 @@
       <c r="F424" t="n">
         <v>20.29728889465332</v>
       </c>
+      <c r="G424" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n"/>
@@ -7561,6 +10109,12 @@
       <c r="F425" t="n">
         <v>21.5909481048584</v>
       </c>
+      <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n"/>
@@ -7577,6 +10131,12 @@
       <c r="F426" t="n">
         <v>22.94206619262695</v>
       </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n"/>
@@ -7593,6 +10153,12 @@
       <c r="F427" t="n">
         <v>26.52075290679931</v>
       </c>
+      <c r="G427" t="n">
+        <v>1</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n"/>
@@ -7608,6 +10174,12 @@
       </c>
       <c r="F428" t="n">
         <v>14477.02026367188</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -7629,6 +10201,12 @@
       <c r="F429" t="n">
         <v>0</v>
       </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n"/>
@@ -7645,6 +10223,12 @@
       <c r="F430" t="n">
         <v>3.082907199859619</v>
       </c>
+      <c r="G430" t="n">
+        <v>1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.897640306122449</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n"/>
@@ -7661,6 +10245,12 @@
       <c r="F431" t="n">
         <v>10.51169633865356</v>
       </c>
+      <c r="G431" t="n">
+        <v>1</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n"/>
@@ -7677,6 +10267,12 @@
       <c r="F432" t="n">
         <v>17.56846904754639</v>
       </c>
+      <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n"/>
@@ -7693,6 +10289,12 @@
       <c r="F433" t="n">
         <v>24.49220418930054</v>
       </c>
+      <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n"/>
@@ -7709,6 +10311,12 @@
       <c r="F434" t="n">
         <v>31.50472640991211</v>
       </c>
+      <c r="G434" t="n">
+        <v>1</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n"/>
@@ -7724,6 +10332,12 @@
       </c>
       <c r="F435" t="n">
         <v>357117.9120540619</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -7745,6 +10359,12 @@
       <c r="F436" t="n">
         <v>0</v>
       </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n"/>
@@ -7761,6 +10381,12 @@
       <c r="F437" t="n">
         <v>4.079055786132812</v>
       </c>
+      <c r="G437" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.2870101503276372</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n"/>
@@ -7777,6 +10403,12 @@
       <c r="F438" t="n">
         <v>11.04187965393066</v>
       </c>
+      <c r="G438" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.6279069767441861</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n"/>
@@ -7793,6 +10425,12 @@
       <c r="F439" t="n">
         <v>19.70958709716797</v>
       </c>
+      <c r="G439" t="n">
+        <v>1</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n"/>
@@ -7809,6 +10447,12 @@
       <c r="F440" t="n">
         <v>27.9386043548584</v>
       </c>
+      <c r="G440" t="n">
+        <v>1</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n"/>
@@ -7825,6 +10469,12 @@
       <c r="F441" t="n">
         <v>32.2667121887207</v>
       </c>
+      <c r="G441" t="n">
+        <v>1</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n"/>
@@ -7840,6 +10490,12 @@
       </c>
       <c r="F442" t="n">
         <v>269122.795343399</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -7861,6 +10517,12 @@
       <c r="F443" t="n">
         <v>0</v>
       </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n"/>
@@ -7877,6 +10539,12 @@
       <c r="F444" t="n">
         <v>14.79532718658447</v>
       </c>
+      <c r="G444" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n"/>
@@ -7893,6 +10561,12 @@
       <c r="F445" t="n">
         <v>15.99133014678955</v>
       </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n"/>
@@ -7909,6 +10583,12 @@
       <c r="F446" t="n">
         <v>17.19868183135986</v>
       </c>
+      <c r="G446" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n"/>
@@ -7925,6 +10605,12 @@
       <c r="F447" t="n">
         <v>18.72462034225464</v>
       </c>
+      <c r="G447" t="n">
+        <v>1</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n"/>
@@ -7941,6 +10627,12 @@
       <c r="F448" t="n">
         <v>21.58697843551636</v>
       </c>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n"/>
@@ -7956,6 +10648,12 @@
       </c>
       <c r="F449" t="n">
         <v>2167.285203933716</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -7977,6 +10675,12 @@
       <c r="F450" t="n">
         <v>0</v>
       </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n"/>
@@ -7991,7 +10695,13 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>34.8025918006897</v>
+        <v>18.20216178894043</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -8007,7 +10717,13 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>41.93514585494995</v>
+        <v>20.94858884811401</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -8023,7 +10739,13 @@
         <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>49.87502098083496</v>
+        <v>22.96543121337891</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.2667140825035562</v>
       </c>
     </row>
     <row r="454">
@@ -8039,7 +10761,13 @@
         <v>0</v>
       </c>
       <c r="F454" t="n">
-        <v>59.92120504379272</v>
+        <v>25.11638402938843</v>
+      </c>
+      <c r="G454" t="n">
+        <v>1</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.6202791461412152</v>
       </c>
     </row>
     <row r="455">
@@ -8055,7 +10783,13 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>93.81469488143917</v>
+        <v>33.12631845474241</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -8071,7 +10805,13 @@
         <v>1</v>
       </c>
       <c r="F456" t="n">
-        <v>17372.25031852722</v>
+        <v>172.8610992431641</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -8097,6 +10837,12 @@
       <c r="F457" t="n">
         <v>0</v>
       </c>
+      <c r="G457" t="n">
+        <v>0.4563106796116505</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.5675675675675675</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n"/>
@@ -8113,6 +10859,12 @@
       <c r="F458" t="n">
         <v>6.979703903198242</v>
       </c>
+      <c r="G458" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n"/>
@@ -8129,6 +10881,12 @@
       <c r="F459" t="n">
         <v>7.982730865478516</v>
       </c>
+      <c r="G459" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="H459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n"/>
@@ -8145,6 +10903,12 @@
       <c r="F460" t="n">
         <v>8.977174758911133</v>
       </c>
+      <c r="G460" t="n">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n"/>
@@ -8161,6 +10925,12 @@
       <c r="F461" t="n">
         <v>9.977400302886963</v>
       </c>
+      <c r="G461" t="n">
+        <v>1</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n"/>
@@ -8177,6 +10947,12 @@
       <c r="F462" t="n">
         <v>14.14226293563843</v>
       </c>
+      <c r="G462" t="n">
+        <v>1</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n"/>
@@ -8192,6 +10968,12 @@
       </c>
       <c r="F463" t="n">
         <v>42.91367530822754</v>
+      </c>
+      <c r="G463" t="n">
+        <v>1</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -8213,6 +10995,12 @@
       <c r="F464" t="n">
         <v>0</v>
       </c>
+      <c r="G464" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.8857142857142857</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n"/>
@@ -8229,6 +11017,12 @@
       <c r="F465" t="n">
         <v>0</v>
       </c>
+      <c r="G465" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n"/>
@@ -8245,6 +11039,12 @@
       <c r="F466" t="n">
         <v>0</v>
       </c>
+      <c r="G466" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n"/>
@@ -8261,6 +11061,12 @@
       <c r="F467" t="n">
         <v>5.969882011413574</v>
       </c>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n"/>
@@ -8277,6 +11083,12 @@
       <c r="F468" t="n">
         <v>7.052898406982422</v>
       </c>
+      <c r="G468" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n"/>
@@ -8293,6 +11105,12 @@
       <c r="F469" t="n">
         <v>21.08731269836425</v>
       </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n"/>
@@ -8308,6 +11126,12 @@
       </c>
       <c r="F470" t="n">
         <v>33.89668464660645</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -8329,6 +11153,12 @@
       <c r="F471" t="n">
         <v>0</v>
       </c>
+      <c r="G471" t="n">
+        <v>0.5735294117647058</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.1851851851851852</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n"/>
@@ -8345,6 +11175,12 @@
       <c r="F472" t="n">
         <v>0</v>
       </c>
+      <c r="G472" t="n">
+        <v>0.8861910241657077</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.6279069767441861</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n"/>
@@ -8361,6 +11197,12 @@
       <c r="F473" t="n">
         <v>1.621723175048828</v>
       </c>
+      <c r="G473" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n"/>
@@ -8377,6 +11219,12 @@
       <c r="F474" t="n">
         <v>7.97724723815918</v>
       </c>
+      <c r="G474" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n"/>
@@ -8393,6 +11241,12 @@
       <c r="F475" t="n">
         <v>16.12758636474609</v>
       </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n"/>
@@ -8409,6 +11263,12 @@
       <c r="F476" t="n">
         <v>23.85668754577637</v>
       </c>
+      <c r="G476" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n"/>
@@ -8424,6 +11284,12 @@
       </c>
       <c r="F477" t="n">
         <v>41.5794849395752</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -8445,6 +11311,12 @@
       <c r="F478" t="n">
         <v>0</v>
       </c>
+      <c r="G478" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.8387096774193549</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n"/>
@@ -8461,6 +11333,12 @@
       <c r="F479" t="n">
         <v>2.987146377563477</v>
       </c>
+      <c r="G479" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.9736842105263158</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n"/>
@@ -8477,6 +11355,12 @@
       <c r="F480" t="n">
         <v>3.019571304321289</v>
       </c>
+      <c r="G480" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n"/>
@@ -8493,6 +11377,12 @@
       <c r="F481" t="n">
         <v>3.988742828369141</v>
       </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n"/>
@@ -8509,6 +11399,12 @@
       <c r="F482" t="n">
         <v>4.670679569244385</v>
       </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n"/>
@@ -8525,6 +11421,12 @@
       <c r="F483" t="n">
         <v>8.973097801208496</v>
       </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n"/>
@@ -8540,6 +11442,12 @@
       </c>
       <c r="F484" t="n">
         <v>54.84485626220703</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -8559,7 +11467,13 @@
         <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>13.92197608947754</v>
+        <v>5.977153778076172</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8575,7 +11489,13 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>14.96989727020264</v>
+        <v>6.964075565338135</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.8250000000000001</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.1517307692307692</v>
       </c>
     </row>
     <row r="487">
@@ -8591,7 +11511,13 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>17.95917749404907</v>
+        <v>8.942604064941406</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.4716911764705882</v>
       </c>
     </row>
     <row r="488">
@@ -8607,7 +11533,13 @@
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>21.31390571594238</v>
+        <v>10.01334190368652</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="489">
@@ -8623,7 +11555,13 @@
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>29.73657846450806</v>
+        <v>11.96670532226562</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.8993589743589744</v>
       </c>
     </row>
     <row r="490">
@@ -8639,7 +11577,13 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>57.89140462875363</v>
+        <v>16.12002849578857</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -8655,7 +11599,13 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>141.2088871002197</v>
+        <v>40.64726829528809</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -8681,6 +11631,12 @@
       <c r="F492" t="n">
         <v>27.98604965209961</v>
       </c>
+      <c r="G492" t="n">
+        <v>0.3551401869158878</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.5079365079365079</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n"/>
@@ -8697,6 +11653,12 @@
       <c r="F493" t="n">
         <v>32.24325180053711</v>
       </c>
+      <c r="G493" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n"/>
@@ -8713,6 +11675,12 @@
       <c r="F494" t="n">
         <v>35.00545024871826</v>
       </c>
+      <c r="G494" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n"/>
@@ -8729,6 +11697,12 @@
       <c r="F495" t="n">
         <v>37.93799877166748</v>
       </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n"/>
@@ -8745,6 +11719,12 @@
       <c r="F496" t="n">
         <v>42.88583993911743</v>
       </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n"/>
@@ -8761,6 +11741,12 @@
       <c r="F497" t="n">
         <v>53.7227988243103</v>
       </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n"/>
@@ -8776,6 +11762,12 @@
       </c>
       <c r="F498" t="n">
         <v>3188.439846038818</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -8797,6 +11789,12 @@
       <c r="F499" t="n">
         <v>10.0395679473877</v>
       </c>
+      <c r="G499" t="n">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.5113636363636364</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n"/>
@@ -8813,6 +11811,12 @@
       <c r="F500" t="n">
         <v>23.32717180252076</v>
       </c>
+      <c r="G500" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.9761904761904762</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n"/>
@@ -8829,6 +11833,12 @@
       <c r="F501" t="n">
         <v>29.90120649337769</v>
       </c>
+      <c r="G501" t="n">
+        <v>1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n"/>
@@ -8845,6 +11855,12 @@
       <c r="F502" t="n">
         <v>31.80825710296631</v>
       </c>
+      <c r="G502" t="n">
+        <v>1</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n"/>
@@ -8861,6 +11877,12 @@
       <c r="F503" t="n">
         <v>32.695472240448</v>
       </c>
+      <c r="G503" t="n">
+        <v>1</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n"/>
@@ -8877,6 +11899,12 @@
       <c r="F504" t="n">
         <v>41.50915145874018</v>
       </c>
+      <c r="G504" t="n">
+        <v>1</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n"/>
@@ -8892,6 +11920,12 @@
       </c>
       <c r="F505" t="n">
         <v>1435.57333946228</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -8913,6 +11947,12 @@
       <c r="F506" t="n">
         <v>15.91324806213379</v>
       </c>
+      <c r="G506" t="n">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.1612903225806452</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n"/>
@@ -8929,6 +11969,12 @@
       <c r="F507" t="n">
         <v>31.39314651489258</v>
       </c>
+      <c r="G507" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n"/>
@@ -8945,6 +11991,12 @@
       <c r="F508" t="n">
         <v>32.57107734680176</v>
       </c>
+      <c r="G508" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n"/>
@@ -8961,6 +12013,12 @@
       <c r="F509" t="n">
         <v>35.51626205444336</v>
       </c>
+      <c r="G509" t="n">
+        <v>1</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n"/>
@@ -8977,6 +12035,12 @@
       <c r="F510" t="n">
         <v>41.34273529052734</v>
       </c>
+      <c r="G510" t="n">
+        <v>1</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n"/>
@@ -8993,6 +12057,12 @@
       <c r="F511" t="n">
         <v>56.00781440734863</v>
       </c>
+      <c r="G511" t="n">
+        <v>1</v>
+      </c>
+      <c r="H511" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n"/>
@@ -9008,6 +12078,12 @@
       </c>
       <c r="F512" t="n">
         <v>20262.54224777222</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1</v>
+      </c>
+      <c r="H512" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -9029,6 +12105,12 @@
       <c r="F513" t="n">
         <v>10.59532165527344</v>
       </c>
+      <c r="G513" t="n">
+        <v>0.4868421052631579</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.4878048780487805</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n"/>
@@ -9045,6 +12127,12 @@
       <c r="F514" t="n">
         <v>22.16726541519165</v>
       </c>
+      <c r="G514" t="n">
+        <v>0.777888888888889</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.9642857142857143</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n"/>
@@ -9061,6 +12149,12 @@
       <c r="F515" t="n">
         <v>24.25467967987061</v>
       </c>
+      <c r="G515" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n"/>
@@ -9077,6 +12171,12 @@
       <c r="F516" t="n">
         <v>26.89802646636963</v>
       </c>
+      <c r="G516" t="n">
+        <v>1</v>
+      </c>
+      <c r="H516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n"/>
@@ -9093,6 +12193,12 @@
       <c r="F517" t="n">
         <v>30.00223636627197</v>
       </c>
+      <c r="G517" t="n">
+        <v>1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n"/>
@@ -9109,6 +12215,12 @@
       <c r="F518" t="n">
         <v>38.89656066894531</v>
       </c>
+      <c r="G518" t="n">
+        <v>1</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n"/>
@@ -9124,6 +12236,12 @@
       </c>
       <c r="F519" t="n">
         <v>3375.093221664429</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1</v>
+      </c>
+      <c r="H519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -9143,7 +12261,13 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>53.88832092285156</v>
+        <v>36.70048713684082</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -9159,7 +12283,13 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>59.08304452896118</v>
+        <v>39.7441029548645</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.6461538461538464</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.157983193277311</v>
       </c>
     </row>
     <row r="522">
@@ -9175,7 +12305,13 @@
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>67.85464286804199</v>
+        <v>47.67537117004395</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.5233333333333333</v>
       </c>
     </row>
     <row r="523">
@@ -9191,7 +12327,13 @@
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>76.30479335784912</v>
+        <v>54.57758903503418</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.7720779220779221</v>
       </c>
     </row>
     <row r="524">
@@ -9207,7 +12349,13 @@
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>90.16978740692139</v>
+        <v>61.27876043319702</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="525">
@@ -9223,7 +12371,13 @@
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>149.3244647979736</v>
+        <v>113.1433248519897</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1</v>
+      </c>
+      <c r="H525" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -9239,7 +12393,13 @@
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>398.2021808624268</v>
+        <v>393.5410976409912</v>
+      </c>
+      <c r="G526" t="n">
+        <v>1</v>
+      </c>
+      <c r="H526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -9265,6 +12425,12 @@
       <c r="F527" t="n">
         <v>210.47043800354</v>
       </c>
+      <c r="G527" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.4827586206896552</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n"/>
@@ -9281,6 +12447,12 @@
       <c r="F528" t="n">
         <v>226.3965964317322</v>
       </c>
+      <c r="G528" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.5074626865671642</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n"/>
@@ -9297,6 +12469,12 @@
       <c r="F529" t="n">
         <v>267.5450444221497</v>
       </c>
+      <c r="G529" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.8918918918918919</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n"/>
@@ -9313,6 +12491,12 @@
       <c r="F530" t="n">
         <v>292.217493057251</v>
       </c>
+      <c r="G530" t="n">
+        <v>1</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n"/>
@@ -9329,6 +12513,12 @@
       <c r="F531" t="n">
         <v>319.6710348129272</v>
       </c>
+      <c r="G531" t="n">
+        <v>1</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.9811320754716981</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n"/>
@@ -9345,6 +12535,12 @@
       <c r="F532" t="n">
         <v>391.6149973869324</v>
       </c>
+      <c r="G532" t="n">
+        <v>1</v>
+      </c>
+      <c r="H532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n"/>
@@ -9360,6 +12556,12 @@
       </c>
       <c r="F533" t="n">
         <v>1114.78853225708</v>
+      </c>
+      <c r="G533" t="n">
+        <v>1</v>
+      </c>
+      <c r="H533" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -9381,6 +12583,12 @@
       <c r="F534" t="n">
         <v>142.9133415222168</v>
       </c>
+      <c r="G534" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.484375</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n"/>
@@ -9397,6 +12605,12 @@
       <c r="F535" t="n">
         <v>160.4454398155212</v>
       </c>
+      <c r="G535" t="n">
+        <v>1</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.5918367346938775</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n"/>
@@ -9413,6 +12627,12 @@
       <c r="F536" t="n">
         <v>170.9868311882019</v>
       </c>
+      <c r="G536" t="n">
+        <v>1</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n"/>
@@ -9429,6 +12649,12 @@
       <c r="F537" t="n">
         <v>183.2782030105591</v>
       </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n"/>
@@ -9445,6 +12671,12 @@
       <c r="F538" t="n">
         <v>193.6492919921875</v>
       </c>
+      <c r="G538" t="n">
+        <v>1</v>
+      </c>
+      <c r="H538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n"/>
@@ -9461,6 +12693,12 @@
       <c r="F539" t="n">
         <v>239.3111944198608</v>
       </c>
+      <c r="G539" t="n">
+        <v>1</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n"/>
@@ -9476,6 +12714,12 @@
       </c>
       <c r="F540" t="n">
         <v>491.0652637481689</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1</v>
+      </c>
+      <c r="H540" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -9497,6 +12741,12 @@
       <c r="F541" t="n">
         <v>225.9953022003174</v>
       </c>
+      <c r="G541" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n"/>
@@ -9513,6 +12763,12 @@
       <c r="F542" t="n">
         <v>243.3582305908203</v>
       </c>
+      <c r="G542" t="n">
+        <v>0.7214470284237726</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n"/>
@@ -9529,6 +12785,12 @@
       <c r="F543" t="n">
         <v>255.2785873413086</v>
       </c>
+      <c r="G543" t="n">
+        <v>1</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.6923076923076923</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n"/>
@@ -9545,6 +12807,12 @@
       <c r="F544" t="n">
         <v>266.8323516845703</v>
       </c>
+      <c r="G544" t="n">
+        <v>1</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n"/>
@@ -9561,6 +12829,12 @@
       <c r="F545" t="n">
         <v>288.6390686035156</v>
       </c>
+      <c r="G545" t="n">
+        <v>1</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.9818181818181818</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n"/>
@@ -9577,6 +12851,12 @@
       <c r="F546" t="n">
         <v>382.0858001708984</v>
       </c>
+      <c r="G546" t="n">
+        <v>1</v>
+      </c>
+      <c r="H546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n"/>
@@ -9592,6 +12872,12 @@
       </c>
       <c r="F547" t="n">
         <v>762.3147964477539</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1</v>
+      </c>
+      <c r="H547" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -9613,6 +12899,12 @@
       <c r="F548" t="n">
         <v>75.12402534484863</v>
       </c>
+      <c r="G548" t="n">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.4814814814814815</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n"/>
@@ -9629,6 +12921,12 @@
       <c r="F549" t="n">
         <v>86.80915832519531</v>
       </c>
+      <c r="G549" t="n">
+        <v>0.8143121693121693</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.5081967213114754</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n"/>
@@ -9645,6 +12943,12 @@
       <c r="F550" t="n">
         <v>94.78884935379028</v>
       </c>
+      <c r="G550" t="n">
+        <v>1</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.9658045977011495</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n"/>
@@ -9661,6 +12965,12 @@
       <c r="F551" t="n">
         <v>104.2631864547729</v>
       </c>
+      <c r="G551" t="n">
+        <v>1</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.9807692307692307</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n"/>
@@ -9677,6 +12987,12 @@
       <c r="F552" t="n">
         <v>121.5475797653198</v>
       </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n"/>
@@ -9693,6 +13009,12 @@
       <c r="F553" t="n">
         <v>167.5473213195801</v>
       </c>
+      <c r="G553" t="n">
+        <v>1</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n"/>
@@ -9708,6 +13030,12 @@
       </c>
       <c r="F554" t="n">
         <v>525.9082317352295</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -9727,7 +13055,13 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>272.6418972015381</v>
+        <v>232.6967716217041</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -9743,7 +13077,13 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>310.9642624855042</v>
+        <v>244.4126963615417</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.04090909090909101</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.0145161290322581</v>
       </c>
     </row>
     <row r="557">
@@ -9759,7 +13099,13 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>377.9923319816589</v>
+        <v>301.4641404151917</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.8112331081081081</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.4332986832986833</v>
       </c>
     </row>
     <row r="558">
@@ -9775,7 +13121,13 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>437.527060508728</v>
+        <v>360.3579998016357</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.6145104895104896</v>
       </c>
     </row>
     <row r="559">
@@ -9791,7 +13143,13 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>551.5826344490051</v>
+        <v>407.3894023895264</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="560">
@@ -9807,7 +13165,13 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>979.1303873062126</v>
+        <v>502.5879979133605</v>
+      </c>
+      <c r="G560" t="n">
+        <v>1</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.9429276315789472</v>
       </c>
     </row>
     <row r="561">
@@ -9823,7 +13187,13 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>1530.962467193604</v>
+        <v>620.9404468536377</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1</v>
+      </c>
+      <c r="H561" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
